--- a/standard/doc/ol控件.xlsx
+++ b/standard/doc/ol控件.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\myserver\standard\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="27840" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="27840" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="control" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
   <si>
     <t>ol.control.Zoom</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,14 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>maxResolution</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>minResolution</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ol.control.ZoomToExtent</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -231,14 +228,26 @@
   </si>
   <si>
     <t>handleUpEvent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duration测试无效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxResolution测试无效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minResolution测试无效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,6 +296,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -333,7 +350,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -365,9 +382,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -399,6 +417,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -574,14 +593,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25.875" customWidth="1"/>
     <col min="2" max="2" width="24.125" customWidth="1"/>
@@ -594,24 +613,24 @@
     <col min="9" max="9" width="24.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
@@ -620,159 +639,159 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="E2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="G7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="E8" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="G8" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="H8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="I9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="H14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="H15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="F16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="F20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="G21" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="G22" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="G23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="G24" t="s">
         <v>6</v>
       </c>
@@ -785,14 +804,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="32.375" customWidth="1"/>
     <col min="2" max="2" width="28.875" customWidth="1"/>
@@ -803,46 +822,46 @@
     <col min="7" max="7" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" t="s">
-        <v>35</v>
-      </c>
       <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
         <v>38</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>39</v>
       </c>
-      <c r="F1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="G2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -850,7 +869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -864,79 +883,79 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="G6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G17" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="B7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="F8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="F9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="F10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="F11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="F12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="G13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="G14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="C15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="7:7">
-      <c r="G17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="7:7">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G20" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="7:7">
-      <c r="G19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="7:7">
-      <c r="G20" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -947,12 +966,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/standard/doc/ol控件.xlsx
+++ b/standard/doc/ol控件.xlsx
@@ -9,19 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="27840" windowHeight="12540"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="27840" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="control" sheetId="1" r:id="rId1"/>
     <sheet name="interaction" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="交互改为控件显示" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="62">
   <si>
     <t>ol.control.Zoom</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -240,6 +240,34 @@
   </si>
   <si>
     <t>minResolution测试无效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理矢量数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DragAndDrop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Draw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Snap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Translate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -596,7 +624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -808,7 +836,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -967,12 +995,50 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/standard/doc/ol控件.xlsx
+++ b/standard/doc/ol控件.xlsx
@@ -998,7 +998,7 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
